--- a/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_4_8.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_4_8.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_13</t>
+          <t>model_4_8_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9947933354248697</v>
+        <v>0.9999975732868583</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8230036790458068</v>
+        <v>0.6760507188859979</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9895771348232683</v>
+        <v>0.9999755047440642</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9628235536057135</v>
+        <v>0.999976600891847</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9689925110120133</v>
+        <v>0.9999762482303836</v>
       </c>
       <c r="G2" t="n">
-        <v>0.034816989988382</v>
+        <v>1.440601749461858e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>1.183575213213809</v>
+        <v>0.1923102871495661</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01459746046563103</v>
+        <v>4.927563176125229e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1754447566920725</v>
+        <v>4.076196650113026e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09502131754281845</v>
+        <v>4.501879913119127e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.328829871219019</v>
+        <v>0.0003066682938582437</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1865931134537982</v>
+        <v>0.001200250702754161</v>
       </c>
       <c r="N2" t="n">
-        <v>1.003377295940625</v>
+        <v>1.0000015740842</v>
       </c>
       <c r="O2" t="n">
-        <v>0.19453676859452</v>
+        <v>0.001251347860031881</v>
       </c>
       <c r="P2" t="n">
-        <v>128.7152995865688</v>
+        <v>148.9008993001876</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.0667249035291</v>
+        <v>223.2523246171479</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_14</t>
+          <t>model_4_8_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.994721642148273</v>
+        <v>0.9999975733217529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8230005182549445</v>
+        <v>0.676050711442566</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9889226955339483</v>
+        <v>0.9999755064832118</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9612722374071667</v>
+        <v>0.999976599624864</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9676485069975018</v>
+        <v>0.999976248557482</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03529640325910179</v>
+        <v>1.440581034566895e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>1.18359634943686</v>
+        <v>0.1923102915683087</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01551401762059943</v>
+        <v>4.927213322263918e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1827657978190246</v>
+        <v>4.076417362459485e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09913996875934239</v>
+        <v>4.501817915291255e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3303595840929214</v>
+        <v>0.0003066113403167228</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1878733702766355</v>
+        <v>0.001200242073319751</v>
       </c>
       <c r="N3" t="n">
-        <v>1.003423799687607</v>
+        <v>1.000001574061566</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1958715286008025</v>
+        <v>0.001251338863224582</v>
       </c>
       <c r="P3" t="n">
-        <v>128.6879484218222</v>
+        <v>148.9009280590641</v>
       </c>
       <c r="Q3" t="n">
-        <v>203.0393737387824</v>
+        <v>223.2523533760244</v>
       </c>
     </row>
     <row r="4">
@@ -632,272 +632,272 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9948519630242719</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8229863320515078</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9902783976658739</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9645057917720716</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9704481568427278</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03442494696122421</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>1.183691212644562</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01361532585606083</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1675058627304329</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09056054405794225</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3271265210677814</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1855396102217104</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N4" t="n">
-        <v>1.003339267227499</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1934384155487899</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7379475501476</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q4" t="n">
-        <v>203.0893728671078</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_15</t>
+          <t>model_4_8_22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9946418272017532</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8229825177316994</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9883148079980293</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E5" t="n">
-        <v>0.959846672914262</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9664119404069796</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03583012617399329</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>1.183716719018684</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01636537798290522</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1894933858448931</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1029293819138991</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.33173676497747</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1892884734314091</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N5" t="n">
-        <v>1.003475571544809</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1973468756265422</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P5" t="n">
-        <v>128.6579324524184</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.0093577693787</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_16</t>
+          <t>model_4_8_21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9945576123856988</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8229540669225817</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9877522757568111</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9585396382650869</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9652769494758476</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03639327103672278</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>1.183906969710258</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01715321722025401</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1956616025049949</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1064075201700184</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3329735150472559</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1907702047928942</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N6" t="n">
-        <v>1.003530197371439</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1988916873596924</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P6" t="n">
-        <v>128.6267427661139</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q6" t="n">
-        <v>202.9781680830742</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_11</t>
+          <t>model_4_8_20</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9948910581964119</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8229412998546712</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D7" t="n">
-        <v>0.991026166690776</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E7" t="n">
-        <v>0.966323436904382</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9720185915662972</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03416351736510777</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>1.183992343152162</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0125680582771997</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1589279501293044</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08574800420325203</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3252399892193191</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1848337560217499</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N7" t="n">
-        <v>1.003313908196922</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1927025116742175</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7531938959998</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q7" t="n">
-        <v>203.10461921296</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_17</t>
+          <t>model_4_8_19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9944718161042199</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8229185372529462</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9872330901547318</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9573440921493459</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9642377813353271</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03696699116602779</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>1.18414455677471</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01788034850058538</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2013036774673446</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.109592012983965</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3340865192718269</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1922680190932121</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003585849013479</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O8" t="n">
-        <v>0.200453266715678</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P8" t="n">
-        <v>128.5954597903424</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q8" t="n">
-        <v>202.9468851073026</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="9">
@@ -907,987 +907,987 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9943865178920077</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8228785154609422</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9867556587543069</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9562526995878156</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9632883162105741</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03753738070385264</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>1.184412182682124</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01854900206892574</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2064542262955576</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1125016141822417</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3350924020934783</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1937456598322983</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003641177583563</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O9" t="n">
-        <v>0.201993813680165</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P9" t="n">
-        <v>128.5648360474606</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q9" t="n">
-        <v>202.9162613644208</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_10</t>
+          <t>model_4_8_17</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9949022692311449</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8228593165796219</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9918187335821896</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9682787731979698</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9737052520879348</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03408854912422583</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>1.184540565689916</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01145805026427764</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1497002392114468</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08057929463520055</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3231369327840627</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1846308455384035</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N10" t="n">
-        <v>1.003306636174393</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1924909628715124</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P10" t="n">
-        <v>128.7575875077914</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q10" t="n">
-        <v>203.1090128247516</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_19</t>
+          <t>model_4_8_16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9943032124142593</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8228360362777846</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D11" t="n">
-        <v>0.986317474264473</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9552581175642995</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9624223630675159</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03809444481714241</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>1.184696241175498</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01916268944361072</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2111479024816954</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1151552959626531</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3359919096125983</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1951779824087297</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N11" t="n">
-        <v>1.003695213569129</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2034871131939916</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P11" t="n">
-        <v>128.5353736256089</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.8867989425692</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_20</t>
+          <t>model_4_8_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9942229041811914</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8227925293493923</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9859163757247802</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9543526199177029</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9616334788476223</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03863146634145304</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>1.184987172205988</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01972443709904986</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2154211676724422</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1175728028427514</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3368055224583078</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1965488904610073</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N12" t="n">
-        <v>1.003747305395984</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2049163836402255</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P12" t="n">
-        <v>128.5073762888107</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q12" t="n">
-        <v>202.8588016057709</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_21</t>
+          <t>model_4_8_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9941463934604355</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8227491299195455</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9855498217519957</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9535301528396167</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9609163826436721</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03914309388344695</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>1.185277384393209</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02023780430043969</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2193025912725274</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1197703179698455</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3375374619575229</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1978461368929071</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N13" t="n">
-        <v>1.003796933971609</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2062688565384017</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P13" t="n">
-        <v>128.4810625471008</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.8324878640611</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_9</t>
+          <t>model_4_8_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9948747694912055</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C14" t="n">
-        <v>0.822728714707685</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9926528806585094</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9703706773569495</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9755066685530361</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0342724400118254</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>1.185413901008924</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01028980825379069</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1398280310852902</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>0.07505891966954044</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3208001930395378</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1851281718481156</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N14" t="n">
-        <v>1.003324473843543</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1930094613918363</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P14" t="n">
-        <v>128.7468274919709</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.0982528089311</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_22</t>
+          <t>model_4_8_24</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9940740479494214</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8227066465118287</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9852151376022303</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9527831487676508</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9602647767672265</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03962686864871892</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>1.18556147113623</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02070653708761804</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2228278864625</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1217671403801506</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3381954781045974</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1990649859938179</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N15" t="n">
-        <v>1.003843860789565</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2075395945689037</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P15" t="n">
-        <v>128.4564957791386</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q15" t="n">
-        <v>202.8079210960989</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_23</t>
+          <t>model_4_8_11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9940061037850229</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8226656043589859</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9849104227949103</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9521054900390962</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9596733283754162</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04008121158890623</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>1.185835920201271</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02113329712698583</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2260259239911702</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1235796123758729</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3387890329777619</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2002029260248367</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N16" t="n">
-        <v>1.003887932679985</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2087259790629035</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P16" t="n">
-        <v>128.4336951867966</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.7851205037568</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_24</t>
+          <t>model_4_8_10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9939427028017065</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8226263892507637</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9846330333736798</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E17" t="n">
-        <v>0.951491377755851</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9591370792106944</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04050517425627773</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>1.186098151810522</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02152178733973792</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2289240702790875</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1252229283561786</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3393214794099362</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2012589731074809</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N17" t="n">
-        <v>1.003929057642136</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2098269842561748</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P17" t="n">
-        <v>128.4126511072318</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.7640764241921</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_8</t>
+          <t>model_4_8_9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.994794774507754</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C18" t="n">
-        <v>0.822534543476628</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9935229513533691</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9725940023752716</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9774174373666197</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03480736683450822</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>1.186712324925078</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I18" t="n">
-        <v>0.009071254395982721</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1293356157331095</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06920343842574225</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3181964125765217</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1865673252059648</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N18" t="n">
-        <v>1.003376362481457</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1945098824875873</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P18" t="n">
-        <v>128.7158524479165</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q18" t="n">
-        <v>203.0672777648767</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_7</t>
+          <t>model_4_8_8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9946445650457556</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8222580430478408</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9944209749451398</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9749377446744292</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9794273166383309</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03581181819854263</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>1.188561284565546</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0078135518683379</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1182749217371442</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06304423680274104</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3152961979935581</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M19" t="n">
-        <v>0.189240107267309</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N19" t="n">
-        <v>1.003473795645996</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1972964504147046</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P19" t="n">
-        <v>128.658954645549</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q19" t="n">
-        <v>203.0103799625092</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_6</t>
+          <t>model_4_8_7</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9944016107977208</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8218753224935919</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9953355033051766</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9773824442517305</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9815186901456984</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03743645437385281</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>1.191120538674075</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006532734036199224</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1067377856167119</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05663529907091773</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3120617360882448</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1934850236422778</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N20" t="n">
-        <v>1.003631387590668</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2017220816679441</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P20" t="n">
-        <v>128.5702206668206</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.9216459837808</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_5</t>
+          <t>model_4_8_6</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9940373025525355</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8213562294298666</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9962508171131375</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E21" t="n">
-        <v>0.979898330464679</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9836650945107053</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03987258528689221</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>1.194591716381409</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I21" t="n">
-        <v>0.005250816166323743</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09486470232590181</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05005772128570513</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3084561448699135</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1996812091482126</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N21" t="n">
-        <v>1.003867695641599</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2081820516187387</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P21" t="n">
-        <v>128.4441325535586</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q21" t="n">
-        <v>202.7955578705189</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_4</t>
+          <t>model_4_8_5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9935153399969651</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8206626509640929</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D22" t="n">
-        <v>0.997146352196586</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9824408445834634</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9858274229835287</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04336295129940829</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>1.199229678775674</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I22" t="n">
-        <v>0.003996598851356561</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08286595542509982</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04343134465367166</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3044190073106574</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2082377278482655</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N22" t="n">
-        <v>1.004206265947915</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2171028390342884</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P22" t="n">
-        <v>128.2762997182876</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.6277250352479</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_3</t>
+          <t>model_4_8_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9927898562378108</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8197462315348532</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9979943111154216</v>
+        <v>0.999975498828753</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9849468742550418</v>
+        <v>0.9999766039257996</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9879508356554425</v>
+        <v>0.9999762472853311</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04821426453741817</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>1.205357779718723</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002809013040325076</v>
+        <v>4.928753123637465e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07103938756731838</v>
+        <v>4.075668126235861e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03692422407223574</v>
+        <v>4.502059037146332e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2998971038449801</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M23" t="n">
-        <v>0.219577468191566</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N23" t="n">
-        <v>1.004676850007906</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2289253356005017</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P23" t="n">
-        <v>128.0642007138978</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.415626030858</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_2</t>
+          <t>model_4_8_4</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9918027756158844</v>
+        <v>0.9999975730544358</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8185459300311868</v>
+        <v>0.6760506586516428</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9987589947829357</v>
+        <v>0.9999755028636517</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9873284277711697</v>
+        <v>0.9999765981119281</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9899593657025697</v>
+        <v>0.9999762459550128</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05481487720132922</v>
+        <v>1.440739725495331e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>1.21338420140062</v>
+        <v>0.1923103229072812</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001738056118597672</v>
+        <v>4.927941447371846e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.05980025317682949</v>
+        <v>4.076680920549991e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0307691570986958</v>
+        <v>4.502311183960919e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2948182955156824</v>
+        <v>0.0003066709047116905</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2341257721852279</v>
+        <v>0.001200308179383666</v>
       </c>
       <c r="N24" t="n">
-        <v>1.005317118519426</v>
+        <v>1.000001574234961</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2440929910143148</v>
+        <v>0.001251407783560497</v>
       </c>
       <c r="P24" t="n">
-        <v>127.8075872801932</v>
+        <v>148.900707756027</v>
       </c>
       <c r="Q24" t="n">
-        <v>202.1590125971534</v>
+        <v>223.2521330729872</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_1</t>
+          <t>model_4_8_0</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.990481012476183</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8169840378301629</v>
+        <v>0.6759270771400883</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9993933938910013</v>
+        <v>0.9999915540657397</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9894663553567666</v>
+        <v>0.9999975080254707</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9917505274107873</v>
+        <v>0.9999943728452181</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06365351340267131</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>1.223828581740718</v>
+        <v>0.1923836862309833</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0008495656946695734</v>
+        <v>1.699017750939316e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04971084922729071</v>
+        <v>4.341096319491675e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02528020746098014</v>
+        <v>1.066563691444242e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2891205688071573</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2522964791721662</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N25" t="n">
-        <v>1.006174478393827</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2630372626162361</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P25" t="n">
-        <v>127.508601513434</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q25" t="n">
-        <v>201.8600268303943</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_0</t>
+          <t>model_4_8_1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9887322975365281</v>
+        <v>0.9999874375144702</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8149619137046097</v>
+        <v>0.6759270761647325</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9998351624009296</v>
+        <v>0.9999915540657397</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9912006405785883</v>
+        <v>0.9999975080254707</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9931868676017059</v>
+        <v>0.9999943728452181</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07534717825623526</v>
+        <v>7.457634081611641e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>1.237350535079319</v>
+        <v>0.1923836868099966</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0002308588180773542</v>
+        <v>1.699017750939316e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04152633246229086</v>
+        <v>4.341096319491675e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02087859540417445</v>
+        <v>1.066563691444242e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2827030278515476</v>
+        <v>0.0004408264543033413</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2744944047812911</v>
+        <v>0.002730866910270737</v>
       </c>
       <c r="N26" t="n">
-        <v>1.007308779976306</v>
+        <v>1.000008148639263</v>
       </c>
       <c r="O26" t="n">
-        <v>0.286180199874582</v>
+        <v>0.002847125568314784</v>
       </c>
       <c r="P26" t="n">
-        <v>127.1712976062028</v>
+        <v>145.6125446825749</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.5227229231631</v>
+        <v>219.9639699995352</v>
       </c>
     </row>
   </sheetData>
